--- a/metadataschemas/FAIR4FOISResearchResourceMetadataSchema.xlsx
+++ b/metadataschemas/FAIR4FOISResearchResourceMetadataSchema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luiz/Documents/GitHub/fair4fois/metadataschemas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hbcesar/Documents/fair4fois/metadataschemas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9704DE3B-E92A-B94B-A3C7-634E007FF6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AFE033-5118-D044-8DB0-4A0C72762FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,7 @@
             <sz val="12"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -55,6 +56,7 @@
             <sz val="12"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -71,6 +73,7 @@
             <sz val="12"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -87,6 +90,7 @@
             <sz val="12"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -179,6 +183,7 @@
             <sz val="12"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -195,6 +200,7 @@
             <sz val="12"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -211,6 +217,7 @@
             <sz val="12"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -227,6 +234,7 @@
             <sz val="12"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -243,6 +251,7 @@
             <sz val="12"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -259,6 +268,7 @@
             <sz val="12"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -276,6 +286,7 @@
             <sz val="12"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -293,6 +304,7 @@
             <sz val="12"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -398,18 +410,12 @@
 The VP Portal allows you to search the VP network resources at once in real time to find those of interest to your research.</t>
   </si>
   <si>
-    <t>https://ror.org/05wg1m734 https://ror.org/02vjkv261</t>
-  </si>
-  <si>
     <t>https://vp.ejprarediseases.org/legal-notice</t>
   </si>
   <si>
     <t>https://vp.ejprarediseases.org/</t>
   </si>
   <si>
-    <t xml:space="preserve">rare diseases, FAIR data, resource discovery, </t>
-  </si>
-  <si>
     <t>https://id.loc.gov/vocabulary/iso639-1/en.html</t>
   </si>
   <si>
@@ -420,6 +426,12 @@
   </si>
   <si>
     <t>https://w3id.org/ejp-rd/portals/vpindex</t>
+  </si>
+  <si>
+    <t>https://ror.org/05wg1m734, https://ror.org/02vjkv261</t>
+  </si>
+  <si>
+    <t>rare diseases, FAIR data, resource discovery</t>
   </si>
 </sst>
 </file>
@@ -442,59 +454,70 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -502,6 +525,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -743,6 +767,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -760,12 +790,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -998,17 +1022,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1074,17 +1098,17 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -1155,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1201,8 +1225,8 @@
       <c r="D2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="30" t="s">
-        <v>33</v>
+      <c r="E2" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>16</v>
@@ -1240,32 +1264,32 @@
         <v>26</v>
       </c>
       <c r="C3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>34</v>
+      <c r="E3" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="F3" s="20">
         <v>44927</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K3" s="22">
         <v>1</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
